--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832130.457884585</v>
+        <v>1831465.676803167</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362195.2019480304</v>
+        <v>362195.2019480307</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.451805854</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="D11" t="n">
-        <v>98.93990648501773</v>
+        <v>10.46022693027864</v>
       </c>
       <c r="E11" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562697</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>20.0548779332525</v>
+        <v>49.79374050860076</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>91.21800240266209</v>
       </c>
       <c r="C12" t="n">
-        <v>35.76262555483546</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>14.5896237813064</v>
       </c>
       <c r="U12" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="V12" t="n">
         <v>40.29306373012028</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172963</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="X12" t="n">
-        <v>98.93990648501773</v>
+        <v>16.95705725418864</v>
       </c>
       <c r="Y12" t="n">
         <v>23.02842894874365</v>
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>26.89230219312412</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.05838072575466</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>49.79374050860076</v>
       </c>
       <c r="V14" t="n">
-        <v>87.14626963200361</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>87.34175268954237</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>11.02590792509185</v>
       </c>
       <c r="H15" t="n">
-        <v>86.93738546136613</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>16.95705725418864</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874365</v>
+        <v>98.93990648501762</v>
       </c>
     </row>
     <row r="16">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.24036351260094</v>
+        <v>44.24036351260003</v>
       </c>
       <c r="C17" t="n">
         <v>20.35862051594552</v>
@@ -1856,10 +1856,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428355</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>87.14626963200359</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1965,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="S18" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>98.93990648501773</v>
+        <v>81.08256192171761</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
     </row>
     <row r="19">
@@ -2093,7 +2093,7 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H20" t="n">
         <v>17.05370075428357</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>81.08256192171761</v>
       </c>
       <c r="D21" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>81.08256192171771</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="W21" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
     </row>
     <row r="22">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>98.93990648501786</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>81.08256192171777</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2439,19 +2439,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>98.93990648501786</v>
+        <v>87.14626963200361</v>
       </c>
       <c r="U24" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529551</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.38744503279266</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T26" t="n">
-        <v>9.5535235654232</v>
+        <v>9.553523565423115</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826922</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.1460820356304</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>123.2406086640102</v>
+        <v>2.084766620974862</v>
       </c>
       <c r="U27" t="n">
-        <v>24.36693987425285</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>236.8112755374932</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139817</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857186</v>
+        <v>4.452200093857101</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5235717884122</v>
+        <v>10.52357178841211</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407191</v>
+        <v>22.48510584407182</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508895</v>
+        <v>10.87823306508887</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138256</v>
+        <v>75.79555397138247</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883649</v>
+        <v>32.2483008388364</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372182</v>
       </c>
       <c r="X28" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629025</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554915</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322198</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3447830355654</v>
+        <v>137.3447830355653</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9114452966139</v>
+        <v>124.9114452966138</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3385352944001</v>
+        <v>190.3385352944</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529552</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.38744503279266</v>
+        <v>14.38744503279258</v>
       </c>
       <c r="T29" t="n">
-        <v>9.5535235654232</v>
+        <v>9.553523565423115</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826931</v>
+        <v>37.28888334826922</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0190692635386</v>
+        <v>108.0190692635385</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0357494801535</v>
+        <v>125.0357494801534</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490926</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4248530728365</v>
+        <v>169.4248530728364</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2889,10 +2889,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>51.55142968099992</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.87880489469028</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.084766620974947</v>
+        <v>2.084766620974862</v>
       </c>
       <c r="U30" t="n">
-        <v>24.36693987425285</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V30" t="n">
-        <v>27.78820656978883</v>
+        <v>27.78820656978874</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139817</v>
+        <v>53.84386923139809</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>155.5327564565853</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5235717884122</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.48510584407191</v>
+        <v>22.48510584407182</v>
       </c>
       <c r="T31" t="n">
-        <v>10.87823306508895</v>
+        <v>10.87823306508887</v>
       </c>
       <c r="U31" t="n">
-        <v>75.79555397138256</v>
+        <v>75.79555397138247</v>
       </c>
       <c r="V31" t="n">
-        <v>32.24830083883649</v>
+        <v>32.2483008388364</v>
       </c>
       <c r="W31" t="n">
-        <v>77.44999274372191</v>
+        <v>77.44999274372182</v>
       </c>
       <c r="X31" t="n">
-        <v>9.05874106262911</v>
+        <v>9.058741062629025</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.280558468555</v>
+        <v>4.280558468554915</v>
       </c>
     </row>
     <row r="32">
@@ -3150,22 +3150,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U33" t="n">
-        <v>95.60486333696097</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V33" t="n">
-        <v>27.7882065697888</v>
+        <v>71.57525275062854</v>
       </c>
       <c r="W33" t="n">
         <v>53.84386923139814</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>32.76865113936962</v>
       </c>
       <c r="S36" t="n">
-        <v>122.5515509232944</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449333703</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>26.14963688610268</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>62.07439110109387</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0.09397422449333703</v>
       </c>
       <c r="W39" t="n">
         <v>26.14963688610268</v>
       </c>
       <c r="X39" t="n">
-        <v>197.5052889390018</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973769</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>114.5202645200608</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7382922638873</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3876,13 +3876,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449330861</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W42" t="n">
-        <v>110.3752494066731</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973769</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>107.828500546929</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4104,22 +4104,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>91.86915401619862</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T45" t="n">
         <v>214.9454809665884</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.09397422449330861</v>
+        <v>0.09397422449328019</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610266</v>
+        <v>26.14963688610263</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
       <c r="C11" t="n">
-        <v>248.3989323932079</v>
+        <v>218.3596772665932</v>
       </c>
       <c r="D11" t="n">
-        <v>148.459632913392</v>
+        <v>207.793791478433</v>
       </c>
       <c r="E11" t="n">
-        <v>48.5203334335761</v>
+        <v>207.793791478433</v>
       </c>
       <c r="F11" t="n">
-        <v>48.5203334335761</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="G11" t="n">
-        <v>48.5203334335761</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5203334335761</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J11" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K11" t="n">
-        <v>7.915192518801419</v>
+        <v>101.296001770624</v>
       </c>
       <c r="L11" t="n">
-        <v>56.4791492331435</v>
+        <v>199.2465091907914</v>
       </c>
       <c r="M11" t="n">
-        <v>139.3918680350438</v>
+        <v>282.1592279926917</v>
       </c>
       <c r="N11" t="n">
-        <v>216.8037652927431</v>
+        <v>359.571125250391</v>
       </c>
       <c r="O11" t="n">
-        <v>314.7542727129106</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="P11" t="n">
-        <v>314.7542727129106</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q11" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308546</v>
+        <v>368.5956843308542</v>
       </c>
       <c r="T11" t="n">
-        <v>368.5956843308546</v>
+        <v>368.5956843308542</v>
       </c>
       <c r="U11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
       <c r="V11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
       <c r="W11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
       <c r="X11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.3382318730238</v>
+        <v>318.2989767464089</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44.03905671560491</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K12" t="n">
-        <v>17.08968857556371</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="L12" t="n">
-        <v>115.0401959957313</v>
+        <v>144.838116727523</v>
       </c>
       <c r="M12" t="n">
-        <v>212.9907034158988</v>
+        <v>144.838116727523</v>
       </c>
       <c r="N12" t="n">
-        <v>310.9412108360664</v>
+        <v>212.9907034158985</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360664</v>
+        <v>310.9412108360659</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q12" t="n">
-        <v>389.6346686569539</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="R12" t="n">
-        <v>389.6346686569539</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="S12" t="n">
-        <v>389.6346686569539</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="T12" t="n">
-        <v>374.8976749384626</v>
+        <v>381.0226322215792</v>
       </c>
       <c r="U12" t="n">
-        <v>274.9583754586466</v>
+        <v>281.0833327417633</v>
       </c>
       <c r="V12" t="n">
-        <v>234.2583110847877</v>
+        <v>240.3832683679045</v>
       </c>
       <c r="W12" t="n">
-        <v>167.2393955375861</v>
+        <v>140.4439688880887</v>
       </c>
       <c r="X12" t="n">
-        <v>67.30009605777022</v>
+        <v>123.3156282272921</v>
       </c>
       <c r="Y12" t="n">
-        <v>44.03905671560491</v>
+        <v>100.0545888851268</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E13" t="n">
-        <v>39.88856417385151</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="G13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="H13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="I13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="J13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="K13" t="n">
-        <v>39.88856417385151</v>
+        <v>68.72987773596837</v>
       </c>
       <c r="L13" t="n">
-        <v>137.8390715940191</v>
+        <v>166.6803851561358</v>
       </c>
       <c r="M13" t="n">
-        <v>137.8390715940191</v>
+        <v>264.6308925763033</v>
       </c>
       <c r="N13" t="n">
-        <v>235.7895790141866</v>
+        <v>264.6308925763033</v>
       </c>
       <c r="O13" t="n">
         <v>333.7400864343542</v>
@@ -5236,13 +5236,13 @@
         <v>137.5150548984988</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692973</v>
+        <v>46.65157014692971</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050491</v>
+        <v>24.8701578005049</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.7330909582491</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C14" t="n">
-        <v>207.7937914784332</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D14" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8544919986173</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F14" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G14" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H14" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J14" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K14" t="n">
-        <v>7.915192518801419</v>
+        <v>52.73204505628186</v>
       </c>
       <c r="L14" t="n">
-        <v>105.865699938969</v>
+        <v>101.2960017706239</v>
       </c>
       <c r="M14" t="n">
-        <v>203.8162073591365</v>
+        <v>184.2087205725242</v>
       </c>
       <c r="N14" t="n">
-        <v>281.2281046168358</v>
+        <v>261.6206178302235</v>
       </c>
       <c r="O14" t="n">
-        <v>317.4166053065153</v>
+        <v>297.809118519903</v>
       </c>
       <c r="P14" t="n">
-        <v>317.4166053065153</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q14" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="S14" t="n">
-        <v>395.7596259400709</v>
+        <v>368.5956843308542</v>
       </c>
       <c r="T14" t="n">
-        <v>395.7596259400709</v>
+        <v>346.3144916785768</v>
       </c>
       <c r="U14" t="n">
-        <v>395.7596259400709</v>
+        <v>296.0177840941324</v>
       </c>
       <c r="V14" t="n">
-        <v>307.7330909582491</v>
+        <v>196.0784846143166</v>
       </c>
       <c r="W14" t="n">
-        <v>307.7330909582491</v>
+        <v>96.13918513450078</v>
       </c>
       <c r="X14" t="n">
-        <v>307.7330909582491</v>
+        <v>96.13918513450078</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.7330909582491</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.6700328686841</v>
+        <v>19.05247325121742</v>
       </c>
       <c r="C15" t="n">
-        <v>195.6700328686841</v>
+        <v>19.05247325121742</v>
       </c>
       <c r="D15" t="n">
-        <v>95.73073338886823</v>
+        <v>19.05247325121742</v>
       </c>
       <c r="E15" t="n">
-        <v>95.73073338886823</v>
+        <v>19.05247325121742</v>
       </c>
       <c r="F15" t="n">
-        <v>95.73073338886823</v>
+        <v>19.05247325121742</v>
       </c>
       <c r="G15" t="n">
-        <v>95.73073338886823</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K15" t="n">
         <v>46.8876093073556</v>
       </c>
       <c r="L15" t="n">
-        <v>46.8876093073556</v>
+        <v>144.838116727523</v>
       </c>
       <c r="M15" t="n">
-        <v>144.8381167275232</v>
+        <v>242.7886241476905</v>
       </c>
       <c r="N15" t="n">
-        <v>242.7886241476907</v>
+        <v>297.809118519903</v>
       </c>
       <c r="O15" t="n">
-        <v>340.7391315678583</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="R15" t="n">
-        <v>395.7596259400709</v>
+        <v>295.8203264602547</v>
       </c>
       <c r="S15" t="n">
-        <v>395.7596259400709</v>
+        <v>295.8203264602547</v>
       </c>
       <c r="T15" t="n">
-        <v>381.0226322215796</v>
+        <v>281.0833327417634</v>
       </c>
       <c r="U15" t="n">
-        <v>343.7783927927065</v>
+        <v>243.8390933128904</v>
       </c>
       <c r="V15" t="n">
-        <v>303.0783284188477</v>
+        <v>203.1390289390315</v>
       </c>
       <c r="W15" t="n">
-        <v>236.059412871646</v>
+        <v>136.1201133918298</v>
       </c>
       <c r="X15" t="n">
-        <v>218.9310722108494</v>
+        <v>118.9917727310332</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.6700328686841</v>
+        <v>19.05247325121742</v>
       </c>
     </row>
     <row r="16">
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D16" t="n">
-        <v>7.915192518801419</v>
+        <v>62.53666738402696</v>
       </c>
       <c r="E16" t="n">
-        <v>7.915192518801419</v>
+        <v>62.53666738402696</v>
       </c>
       <c r="F16" t="n">
-        <v>7.915192518801419</v>
+        <v>62.53666738402696</v>
       </c>
       <c r="G16" t="n">
-        <v>39.25896298033831</v>
+        <v>62.53666738402696</v>
       </c>
       <c r="H16" t="n">
-        <v>39.25896298033831</v>
+        <v>62.53666738402696</v>
       </c>
       <c r="I16" t="n">
-        <v>39.25896298033831</v>
+        <v>97.84207940990352</v>
       </c>
       <c r="J16" t="n">
-        <v>39.88856417385151</v>
+        <v>177.5275656536537</v>
       </c>
       <c r="K16" t="n">
-        <v>137.8390715940191</v>
+        <v>177.5275656536537</v>
       </c>
       <c r="L16" t="n">
-        <v>137.8390715940191</v>
+        <v>275.4780730738211</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7895790141866</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141866</v>
+        <v>333.7400864343542</v>
       </c>
       <c r="O16" t="n">
         <v>333.7400864343542</v>
@@ -5473,13 +5473,13 @@
         <v>137.5150548984988</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692973</v>
+        <v>46.65157014692971</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050491</v>
+        <v>24.8701578005049</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>259.734900227118</v>
       </c>
       <c r="C17" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796983</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413207</v>
+        <v>231.1653009413205</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368734</v>
+        <v>189.1127401368732</v>
       </c>
       <c r="F17" t="n">
         <v>115.019434303762</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666359</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J17" t="n">
-        <v>52.7320450562822</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K17" t="n">
-        <v>52.7320450562822</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="L17" t="n">
-        <v>101.2960017706243</v>
+        <v>101.2960017706239</v>
       </c>
       <c r="M17" t="n">
-        <v>184.2087205725246</v>
+        <v>184.2087205725242</v>
       </c>
       <c r="N17" t="n">
-        <v>261.6206178302239</v>
+        <v>261.6206178302235</v>
       </c>
       <c r="O17" t="n">
-        <v>297.8091185199033</v>
+        <v>297.809118519903</v>
       </c>
       <c r="P17" t="n">
-        <v>395.7596259400709</v>
+        <v>297.809118519903</v>
       </c>
       <c r="Q17" t="n">
-        <v>395.7596259400709</v>
+        <v>297.809118519903</v>
       </c>
       <c r="R17" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="S17" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="T17" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="U17" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203401</v>
+        <v>387.6287300203397</v>
       </c>
       <c r="X17" t="n">
-        <v>357.39051039461</v>
+        <v>357.3905103946096</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4221360984317</v>
+        <v>304.4221360984312</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.8810269804391</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C18" t="n">
-        <v>195.8810269804391</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D18" t="n">
-        <v>195.8810269804391</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E18" t="n">
-        <v>95.94172750062324</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K18" t="n">
         <v>46.8876093073556</v>
       </c>
       <c r="L18" t="n">
-        <v>144.8381167275232</v>
+        <v>144.838116727523</v>
       </c>
       <c r="M18" t="n">
-        <v>242.7886241476907</v>
+        <v>199.8586110997356</v>
       </c>
       <c r="N18" t="n">
-        <v>340.7391315678583</v>
+        <v>297.809118519903</v>
       </c>
       <c r="O18" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.7596259400709</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="R18" t="n">
-        <v>395.7596259400709</v>
+        <v>289.6953691771376</v>
       </c>
       <c r="S18" t="n">
-        <v>295.820326460255</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="T18" t="n">
-        <v>295.820326460255</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="U18" t="n">
-        <v>295.820326460255</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="V18" t="n">
-        <v>295.820326460255</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="W18" t="n">
-        <v>295.820326460255</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="X18" t="n">
-        <v>195.8810269804391</v>
+        <v>107.8544919986172</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.8810269804391</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271185</v>
+        <v>259.7349002271183</v>
       </c>
       <c r="C20" t="n">
-        <v>239.1706370796988</v>
+        <v>239.1706370796985</v>
       </c>
       <c r="D20" t="n">
-        <v>231.165300941321</v>
+        <v>231.1653009413208</v>
       </c>
       <c r="E20" t="n">
-        <v>189.1127401368738</v>
+        <v>189.1127401368735</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037625</v>
+        <v>115.0194343037622</v>
       </c>
       <c r="G20" t="n">
-        <v>25.14115287666361</v>
+        <v>25.1411528766636</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J20" t="n">
-        <v>88.92054574596168</v>
+        <v>105.8656999389688</v>
       </c>
       <c r="K20" t="n">
-        <v>88.92054574596168</v>
+        <v>105.8656999389688</v>
       </c>
       <c r="L20" t="n">
-        <v>137.4845024603038</v>
+        <v>154.4296566533109</v>
       </c>
       <c r="M20" t="n">
-        <v>220.397221262204</v>
+        <v>237.3423754552112</v>
       </c>
       <c r="N20" t="n">
-        <v>297.8091185199033</v>
+        <v>314.7542727129105</v>
       </c>
       <c r="O20" t="n">
-        <v>395.7596259400709</v>
+        <v>350.94277340259</v>
       </c>
       <c r="P20" t="n">
-        <v>395.7596259400709</v>
+        <v>350.94277340259</v>
       </c>
       <c r="Q20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="R20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="S20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="T20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="U20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203401</v>
+        <v>387.6287300203398</v>
       </c>
       <c r="X20" t="n">
-        <v>357.39051039461</v>
+        <v>357.3905103946098</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984316</v>
+        <v>304.4221360984315</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.7560696973221</v>
+        <v>89.81677021750608</v>
       </c>
       <c r="C21" t="n">
-        <v>189.7560696973221</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D21" t="n">
-        <v>89.81677021750619</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K21" t="n">
         <v>46.8876093073556</v>
       </c>
       <c r="L21" t="n">
-        <v>115.0401959957313</v>
+        <v>46.8876093073556</v>
       </c>
       <c r="M21" t="n">
-        <v>212.9907034158988</v>
+        <v>115.040195995731</v>
       </c>
       <c r="N21" t="n">
-        <v>212.9907034158988</v>
+        <v>212.9907034158985</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360664</v>
+        <v>310.9412108360659</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400709</v>
+        <v>395.7596259400705</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="S21" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="T21" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="U21" t="n">
-        <v>389.6346686569539</v>
+        <v>389.6346686569534</v>
       </c>
       <c r="V21" t="n">
-        <v>389.6346686569539</v>
+        <v>289.6953691771376</v>
       </c>
       <c r="W21" t="n">
-        <v>289.695369177138</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="X21" t="n">
-        <v>289.695369177138</v>
+        <v>189.7560696973219</v>
       </c>
       <c r="Y21" t="n">
-        <v>289.695369177138</v>
+        <v>89.81677021750608</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801419</v>
+        <v>7.915192518801409</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.734900227119</v>
+        <v>259.7349002271184</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796993</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413216</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368743</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F23" t="n">
-        <v>115.019434303763</v>
+        <v>115.0194343037624</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666362</v>
+        <v>25.14115287666361</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I23" t="n">
-        <v>96.31420339138255</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J23" t="n">
-        <v>96.31420339138255</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K23" t="n">
-        <v>150.6825524764502</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L23" t="n">
-        <v>199.2465091907923</v>
+        <v>56.4791492331435</v>
       </c>
       <c r="M23" t="n">
-        <v>282.1592279926926</v>
+        <v>139.3918680350438</v>
       </c>
       <c r="N23" t="n">
-        <v>359.5711252503919</v>
+        <v>237.3423754552113</v>
       </c>
       <c r="O23" t="n">
-        <v>395.7596259400714</v>
+        <v>273.5308761448908</v>
       </c>
       <c r="P23" t="n">
-        <v>395.7596259400714</v>
+        <v>273.5308761448908</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.7596259400714</v>
+        <v>371.4813835650584</v>
       </c>
       <c r="R23" t="n">
-        <v>395.7596259400714</v>
+        <v>371.4813835650584</v>
       </c>
       <c r="S23" t="n">
-        <v>395.7596259400714</v>
+        <v>371.4813835650584</v>
       </c>
       <c r="T23" t="n">
-        <v>395.7596259400714</v>
+        <v>386.8822036165504</v>
       </c>
       <c r="U23" t="n">
-        <v>395.7596259400714</v>
+        <v>386.8822036165504</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400714</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203406</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946105</v>
+        <v>357.39051039461</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984321</v>
+        <v>304.4221360984316</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>189.7560696973223</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C24" t="n">
-        <v>89.81677021750626</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D24" t="n">
-        <v>89.81677021750626</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E24" t="n">
-        <v>89.81677021750626</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K24" t="n">
-        <v>46.88760930735561</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L24" t="n">
-        <v>46.88760930735561</v>
+        <v>105.865699938969</v>
       </c>
       <c r="M24" t="n">
-        <v>144.8381167275233</v>
+        <v>203.8162073591365</v>
       </c>
       <c r="N24" t="n">
-        <v>242.788624147691</v>
+        <v>297.8091185199033</v>
       </c>
       <c r="O24" t="n">
-        <v>340.7391315678587</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400714</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.6346686569544</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="R24" t="n">
-        <v>389.6346686569544</v>
+        <v>295.820326460255</v>
       </c>
       <c r="S24" t="n">
-        <v>389.6346686569544</v>
+        <v>295.820326460255</v>
       </c>
       <c r="T24" t="n">
-        <v>289.6953691771383</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="U24" t="n">
-        <v>189.7560696973223</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="V24" t="n">
-        <v>189.7560696973223</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="W24" t="n">
-        <v>189.7560696973223</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="X24" t="n">
-        <v>189.7560696973223</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.7560696973223</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801429</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907654</v>
+        <v>886.1595461907648</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234787</v>
+        <v>759.9863691234781</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901219</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281017</v>
+        <v>407.5048206281019</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720949</v>
+        <v>199.4586982720945</v>
       </c>
       <c r="H26" t="n">
-        <v>64.06489698532371</v>
+        <v>64.06489698532363</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365278</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3583775511675</v>
+        <v>377.358377551168</v>
       </c>
       <c r="L26" t="n">
-        <v>636.6544414676669</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717243</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.443271931581</v>
+        <v>1218.443271931582</v>
       </c>
       <c r="O26" t="n">
         <v>1465.363879823418</v>
       </c>
       <c r="P26" t="n">
-        <v>1662.834462498258</v>
+        <v>1662.834462498259</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968432</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U26" t="n">
         <v>1742.697910668953</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.746727067316</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>333.731564878961</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="E27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="F27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="G27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="H27" t="n">
-        <v>144.3192906119247</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L27" t="n">
         <v>193.7531079096929</v>
@@ -6324,31 +6324,31 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.4246058560649</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="R27" t="n">
-        <v>795.4246058560649</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="S27" t="n">
-        <v>795.4246058560649</v>
+        <v>801.5495631391819</v>
       </c>
       <c r="T27" t="n">
-        <v>670.9391425590849</v>
+        <v>799.4437382695104</v>
       </c>
       <c r="U27" t="n">
-        <v>646.3260719790314</v>
+        <v>559.8198451181303</v>
       </c>
       <c r="V27" t="n">
-        <v>403.2463538826656</v>
+        <v>320.6165364943998</v>
       </c>
       <c r="W27" t="n">
-        <v>348.8586071842836</v>
+        <v>51.21796722469109</v>
       </c>
       <c r="X27" t="n">
-        <v>344.3614353723066</v>
+        <v>46.72079541271422</v>
       </c>
       <c r="Y27" t="n">
-        <v>333.731564878961</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="C28" t="n">
-        <v>82.03042295927332</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="D28" t="n">
-        <v>82.03042295927332</v>
+        <v>36.09092491936865</v>
       </c>
       <c r="E28" t="n">
-        <v>82.03042295927332</v>
+        <v>106.5636523214233</v>
       </c>
       <c r="F28" t="n">
-        <v>82.03042295927332</v>
+        <v>106.5636523214233</v>
       </c>
       <c r="G28" t="n">
-        <v>82.03042295927332</v>
+        <v>130.8823145170182</v>
       </c>
       <c r="H28" t="n">
-        <v>128.6429561871011</v>
+        <v>130.8823145170182</v>
       </c>
       <c r="I28" t="n">
-        <v>128.6429561871011</v>
+        <v>178.5675351316229</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6429561871011</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="K28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="L28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="M28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="N28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="O28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="P28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.060818646567</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387767</v>
+        <v>247.9206018387762</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316162</v>
+        <v>236.9324876316157</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039567</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7972807526071</v>
+        <v>127.7972807526068</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985767</v>
+        <v>49.56496484985747</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225251</v>
+        <v>40.4147213522524</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936865</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1024.891650267093</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907648</v>
+        <v>886.1595461907642</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234782</v>
+        <v>759.9863691234777</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901219</v>
+        <v>599.7659673901214</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5048206281016</v>
+        <v>407.5048206281015</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720941</v>
+        <v>199.4586982720948</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532374</v>
+        <v>64.06489698532366</v>
       </c>
       <c r="I29" t="n">
         <v>36.09092491936867</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365272</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3583775511686</v>
+        <v>377.3583775511675</v>
       </c>
       <c r="L29" t="n">
-        <v>636.654441467668</v>
+        <v>636.6544414676669</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717257</v>
+        <v>930.2992674717245</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P29" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
         <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
         <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847042</v>
+        <v>1507.289002847041</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292403</v>
+        <v>1358.882942292402</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.746727067316</v>
+        <v>1187.746727067315</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.5753503793342</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="C30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="D30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="E30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="F30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="G30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="H30" t="n">
-        <v>88.16307611229789</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936867</v>
+        <v>88.49375814632855</v>
       </c>
       <c r="J30" t="n">
         <v>36.09092491936867</v>
@@ -6570,22 +6570,22 @@
         <v>795.4246058560649</v>
       </c>
       <c r="T30" t="n">
-        <v>793.3187809863932</v>
+        <v>793.3187809863933</v>
       </c>
       <c r="U30" t="n">
-        <v>768.7057104063398</v>
+        <v>553.6948878350132</v>
       </c>
       <c r="V30" t="n">
-        <v>740.6368148813006</v>
+        <v>525.6259923099741</v>
       </c>
       <c r="W30" t="n">
-        <v>686.2490681829186</v>
+        <v>471.2382456115922</v>
       </c>
       <c r="X30" t="n">
-        <v>466.7410737996149</v>
+        <v>314.1344512110009</v>
       </c>
       <c r="Y30" t="n">
-        <v>456.1112033062693</v>
+        <v>88.49375814632855</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="C31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="H31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="J31" t="n">
-        <v>70.98228066320755</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="K31" t="n">
-        <v>84.04417836936648</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="L31" t="n">
-        <v>84.04417836936648</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="M31" t="n">
-        <v>270.6328299641019</v>
+        <v>75.45396469873498</v>
       </c>
       <c r="N31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="O31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="P31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="R31" t="n">
-        <v>270.6328299641019</v>
+        <v>270.6328299641013</v>
       </c>
       <c r="S31" t="n">
-        <v>247.9206018387767</v>
+        <v>247.9206018387763</v>
       </c>
       <c r="T31" t="n">
-        <v>236.9324876316162</v>
+        <v>236.9324876316158</v>
       </c>
       <c r="U31" t="n">
-        <v>160.3713220039571</v>
+        <v>160.3713220039567</v>
       </c>
       <c r="V31" t="n">
-        <v>127.7972807526071</v>
+        <v>127.7972807526068</v>
       </c>
       <c r="W31" t="n">
-        <v>49.56496484985767</v>
+        <v>49.5649648498575</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225251</v>
+        <v>40.41472135225242</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09092491936867</v>
@@ -6677,16 +6677,16 @@
         <v>1024.891650267094</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907657</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234789</v>
+        <v>759.9863691234782</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901225</v>
+        <v>599.7659673901219</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5048206281022</v>
+        <v>407.5048206281016</v>
       </c>
       <c r="G32" t="n">
         <v>199.4586982720949</v>
@@ -6698,49 +6698,49 @@
         <v>36.09092491936867</v>
       </c>
       <c r="J32" t="n">
-        <v>171.800513136528</v>
+        <v>171.8005131365275</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511681</v>
+        <v>377.3583775511677</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676675</v>
+        <v>636.6544414676671</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717252</v>
+        <v>930.2992674717248</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.013205691</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.546245968434</v>
+        <v>1804.546245968433</v>
       </c>
       <c r="S32" t="n">
         <v>1790.013473208037</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.36344940458</v>
+        <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X32" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.746727067316</v>
@@ -6798,28 +6798,28 @@
         <v>801.5495631391819</v>
       </c>
       <c r="Q33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="R33" t="n">
-        <v>801.5495631391819</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="S33" t="n">
-        <v>608.1419421553123</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="T33" t="n">
-        <v>391.025294714314</v>
+        <v>578.3079584150665</v>
       </c>
       <c r="U33" t="n">
-        <v>294.4547256870807</v>
+        <v>338.6840652636864</v>
       </c>
       <c r="V33" t="n">
-        <v>266.3858301620415</v>
+        <v>266.3858301620414</v>
       </c>
       <c r="W33" t="n">
         <v>211.9980834636595</v>
       </c>
       <c r="X33" t="n">
-        <v>207.5009116516826</v>
+        <v>207.5009116516825</v>
       </c>
       <c r="Y33" t="n">
         <v>196.8710411583369</v>
@@ -6835,46 +6835,46 @@
         <v>36.09092491936867</v>
       </c>
       <c r="C34" t="n">
-        <v>82.03042295927335</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="D34" t="n">
-        <v>82.03042295927335</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="E34" t="n">
-        <v>82.03042295927335</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="F34" t="n">
-        <v>155.2249167651685</v>
+        <v>36.09092491936867</v>
       </c>
       <c r="G34" t="n">
-        <v>155.2249167651685</v>
+        <v>79.81450396963373</v>
       </c>
       <c r="H34" t="n">
-        <v>201.8374499929963</v>
+        <v>79.81450396963373</v>
       </c>
       <c r="I34" t="n">
-        <v>201.8374499929963</v>
+        <v>79.81450396963373</v>
       </c>
       <c r="J34" t="n">
-        <v>201.8374499929963</v>
+        <v>79.81450396963373</v>
       </c>
       <c r="K34" t="n">
-        <v>201.8374499929963</v>
+        <v>79.81450396963373</v>
       </c>
       <c r="L34" t="n">
-        <v>201.8374499929963</v>
+        <v>259.4952133680862</v>
       </c>
       <c r="M34" t="n">
-        <v>201.8374499929963</v>
+        <v>259.4952133680862</v>
       </c>
       <c r="N34" t="n">
-        <v>201.8374499929963</v>
+        <v>259.4952133680862</v>
       </c>
       <c r="O34" t="n">
-        <v>201.8374499929963</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="P34" t="n">
-        <v>201.8374499929963</v>
+        <v>270.6328299641017</v>
       </c>
       <c r="Q34" t="n">
         <v>270.6328299641017</v>
@@ -6895,10 +6895,10 @@
         <v>127.797280752607</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985762</v>
+        <v>49.56496484985761</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225249</v>
+        <v>40.41472135225248</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09092491936867</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.158653286608</v>
+        <v>821.1586532866075</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762343</v>
+        <v>710.400521276234</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749024</v>
+        <v>612.2013162749022</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075007</v>
+        <v>479.9548866075006</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114353</v>
       </c>
       <c r="G35" t="n">
         <v>135.5955616213834</v>
@@ -6935,31 +6935,31 @@
         <v>28.17573240056726</v>
       </c>
       <c r="J35" t="n">
-        <v>28.17573240056726</v>
+        <v>191.3026106395686</v>
       </c>
       <c r="K35" t="n">
-        <v>261.1508868370499</v>
+        <v>424.2777650760513</v>
       </c>
       <c r="L35" t="n">
-        <v>309.714843551392</v>
+        <v>472.8417217903933</v>
       </c>
       <c r="M35" t="n">
-        <v>630.776959577292</v>
+        <v>793.9038378162934</v>
       </c>
       <c r="N35" t="n">
-        <v>946.3382540589912</v>
+        <v>871.3157350739928</v>
       </c>
       <c r="O35" t="n">
-        <v>1220.676151972671</v>
+        <v>1145.653632987672</v>
       </c>
       <c r="P35" t="n">
-        <v>1362.836289729087</v>
+        <v>1370.541505684355</v>
       </c>
       <c r="Q35" t="n">
-        <v>1362.836289729087</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="R35" t="n">
-        <v>1408.786620028363</v>
+        <v>1395.612900588985</v>
       </c>
       <c r="S35" t="n">
         <v>1408.786620028363</v>
@@ -6974,13 +6974,13 @@
         <v>1317.958854451376</v>
       </c>
       <c r="W35" t="n">
-        <v>1219.634089668692</v>
+        <v>1219.634089668691</v>
       </c>
       <c r="X35" t="n">
-        <v>1099.202001180008</v>
+        <v>1099.202001180007</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208751</v>
+        <v>956.0397580208746</v>
       </c>
     </row>
     <row r="36">
@@ -7035,31 +7035,31 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q36" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="R36" t="n">
-        <v>793.6343706203805</v>
+        <v>754.4097657217386</v>
       </c>
       <c r="S36" t="n">
-        <v>669.8449252433155</v>
+        <v>754.4097657217386</v>
       </c>
       <c r="T36" t="n">
-        <v>452.7282778023171</v>
+        <v>537.2931182807403</v>
       </c>
       <c r="U36" t="n">
-        <v>452.7282778023171</v>
+        <v>297.6692251293601</v>
       </c>
       <c r="V36" t="n">
-        <v>452.633354343233</v>
+        <v>54.58950703299421</v>
       </c>
       <c r="W36" t="n">
-        <v>426.219579710806</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="X36" t="n">
-        <v>206.7115853275023</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="Y36" t="n">
-        <v>206.7115853275023</v>
+        <v>28.17573240056726</v>
       </c>
     </row>
     <row r="37">
@@ -7081,43 +7081,43 @@
         <v>28.17573240056726</v>
       </c>
       <c r="F37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="G37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="H37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="I37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="J37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="K37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="L37" t="n">
-        <v>94.63203764508324</v>
+        <v>28.17573240056726</v>
       </c>
       <c r="M37" t="n">
-        <v>94.63203764508324</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="N37" t="n">
-        <v>94.63203764508324</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="O37" t="n">
-        <v>94.63203764508324</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="P37" t="n">
-        <v>94.63203764508324</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.63203764508324</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="R37" t="n">
-        <v>131.6213389844607</v>
+        <v>126.4643037482493</v>
       </c>
       <c r="S37" t="n">
         <v>131.6213389844607</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>821.1586532866078</v>
+        <v>821.1586532866071</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762341</v>
+        <v>710.4005212762335</v>
       </c>
       <c r="D38" t="n">
-        <v>612.2013162749024</v>
+        <v>612.2013162749017</v>
       </c>
       <c r="E38" t="n">
-        <v>479.9548866075012</v>
+        <v>479.9548866075005</v>
       </c>
       <c r="F38" t="n">
-        <v>315.667711911436</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213835</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H38" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="I38" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="J38" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="K38" t="n">
         <v>261.1508868370499</v>
@@ -7181,43 +7181,43 @@
         <v>547.8642407753919</v>
       </c>
       <c r="M38" t="n">
-        <v>868.9263568012919</v>
+        <v>773.0249024216469</v>
       </c>
       <c r="N38" t="n">
-        <v>946.3382540589913</v>
+        <v>1088.586196903346</v>
       </c>
       <c r="O38" t="n">
-        <v>1220.676151972671</v>
+        <v>1124.774697593026</v>
       </c>
       <c r="P38" t="n">
-        <v>1344.876988037013</v>
+        <v>1349.662570289708</v>
       </c>
       <c r="Q38" t="n">
-        <v>1344.876988037013</v>
+        <v>1349.662570289708</v>
       </c>
       <c r="R38" t="n">
-        <v>1390.827318336289</v>
+        <v>1395.612900588984</v>
       </c>
       <c r="S38" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T38" t="n">
-        <v>1408.786620028363</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="U38" t="n">
         <v>1399.095053358692</v>
       </c>
       <c r="V38" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W38" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X38" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y38" t="n">
-        <v>956.0397580208748</v>
+        <v>956.0397580208742</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.9558486395355</v>
+        <v>90.87713755318731</v>
       </c>
       <c r="C39" t="n">
-        <v>188.9558486395355</v>
+        <v>90.87713755318731</v>
       </c>
       <c r="D39" t="n">
-        <v>28.17573240056726</v>
+        <v>90.87713755318731</v>
       </c>
       <c r="E39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="F39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="G39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="H39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="I39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="J39" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="K39" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912143</v>
       </c>
       <c r="L39" t="n">
         <v>185.8379153908915</v>
@@ -7275,28 +7275,28 @@
         <v>793.6343706203805</v>
       </c>
       <c r="R39" t="n">
-        <v>657.9496332259059</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="S39" t="n">
-        <v>657.9496332259059</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T39" t="n">
-        <v>657.9496332259059</v>
+        <v>576.5177231793822</v>
       </c>
       <c r="U39" t="n">
-        <v>657.9496332259059</v>
+        <v>336.8938300280021</v>
       </c>
       <c r="V39" t="n">
-        <v>414.86991512954</v>
+        <v>336.7989065689179</v>
       </c>
       <c r="W39" t="n">
-        <v>388.456140497113</v>
+        <v>310.385131936491</v>
       </c>
       <c r="X39" t="n">
-        <v>188.9558486395355</v>
+        <v>90.87713755318731</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.9558486395355</v>
+        <v>90.87713755318731</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="C40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="D40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="E40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="F40" t="n">
         <v>128.7875162283049</v>
@@ -7339,13 +7339,13 @@
         <v>128.7875162283049</v>
       </c>
       <c r="M40" t="n">
-        <v>131.6213389844607</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6213389844607</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="O40" t="n">
-        <v>131.6213389844607</v>
+        <v>128.7875162283049</v>
       </c>
       <c r="P40" t="n">
         <v>131.6213389844607</v>
@@ -7363,19 +7363,19 @@
         <v>131.6213389844607</v>
       </c>
       <c r="U40" t="n">
-        <v>83.03414542275657</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V40" t="n">
-        <v>78.43407623736162</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="X40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.17573240056726</v>
+        <v>28.17573240056724</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866065</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762336</v>
+        <v>710.400521276233</v>
       </c>
       <c r="D41" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749015</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075008</v>
+        <v>479.9548866075004</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114356</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I41" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J41" t="n">
-        <v>28.17573240056725</v>
+        <v>191.3026106395685</v>
       </c>
       <c r="K41" t="n">
-        <v>234.8434947747472</v>
+        <v>234.8434947747469</v>
       </c>
       <c r="L41" t="n">
-        <v>283.4074514890893</v>
+        <v>283.4074514890889</v>
       </c>
       <c r="M41" t="n">
-        <v>604.4695675149894</v>
+        <v>604.469567514989</v>
       </c>
       <c r="N41" t="n">
-        <v>681.8814647726888</v>
+        <v>681.8814647726882</v>
       </c>
       <c r="O41" t="n">
-        <v>956.2193626863681</v>
+        <v>956.2193626863675</v>
       </c>
       <c r="P41" t="n">
-        <v>1181.107235383051</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R41" t="n">
-        <v>1377.653598896911</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T41" t="n">
         <v>1408.786620028362</v>
@@ -7448,13 +7448,13 @@
         <v>1317.958854451375</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X41" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208744</v>
+        <v>956.0397580208736</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>367.8287059240553</v>
+        <v>304.6328835082837</v>
       </c>
       <c r="C42" t="n">
-        <v>178.416431657019</v>
+        <v>304.6328835082837</v>
       </c>
       <c r="D42" t="n">
-        <v>178.416431657019</v>
+        <v>143.8527672693155</v>
       </c>
       <c r="E42" t="n">
-        <v>178.416431657019</v>
+        <v>143.8527672693155</v>
       </c>
       <c r="F42" t="n">
-        <v>178.416431657019</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J42" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K42" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912137</v>
       </c>
       <c r="L42" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908913</v>
       </c>
       <c r="M42" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312078</v>
       </c>
       <c r="N42" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437102</v>
       </c>
       <c r="O42" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163757</v>
       </c>
       <c r="P42" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="Q42" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="R42" t="n">
-        <v>657.949633225906</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="S42" t="n">
-        <v>657.949633225906</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="T42" t="n">
-        <v>657.949633225906</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="U42" t="n">
-        <v>657.949633225906</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="V42" t="n">
-        <v>657.8547097668219</v>
+        <v>793.539447161296</v>
       </c>
       <c r="W42" t="n">
-        <v>546.3645588509904</v>
+        <v>524.1408778915874</v>
       </c>
       <c r="X42" t="n">
-        <v>546.3645588509904</v>
+        <v>304.6328835082837</v>
       </c>
       <c r="Y42" t="n">
-        <v>546.3645588509904</v>
+        <v>304.6328835082837</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="L43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="M43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="O43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="P43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>821.1586532866072</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762339</v>
+        <v>710.4005212762338</v>
       </c>
       <c r="D44" t="n">
-        <v>612.2013162749022</v>
+        <v>612.201316274902</v>
       </c>
       <c r="E44" t="n">
-        <v>479.954886607501</v>
+        <v>479.9548866075004</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114357</v>
+        <v>315.6677119114352</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213834</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I44" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J44" t="n">
-        <v>191.3026106395687</v>
+        <v>191.3026106395685</v>
       </c>
       <c r="K44" t="n">
-        <v>424.2777650760514</v>
+        <v>424.2777650760512</v>
       </c>
       <c r="L44" t="n">
-        <v>472.8417217903935</v>
+        <v>472.8417217903932</v>
       </c>
       <c r="M44" t="n">
-        <v>635.6025886464408</v>
+        <v>793.9038378162932</v>
       </c>
       <c r="N44" t="n">
-        <v>713.0144859041402</v>
+        <v>1109.465132297992</v>
       </c>
       <c r="O44" t="n">
-        <v>987.3523838178195</v>
+        <v>1145.653632987671</v>
       </c>
       <c r="P44" t="n">
-        <v>1212.240256514502</v>
+        <v>1181.10723538305</v>
       </c>
       <c r="Q44" t="n">
-        <v>1362.836289729086</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R44" t="n">
-        <v>1408.786620028362</v>
+        <v>1377.65359889691</v>
       </c>
       <c r="S44" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028362</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>217.5880066676035</v>
+        <v>137.0934097206976</v>
       </c>
       <c r="C45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J45" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912144</v>
+        <v>67.14814918912137</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908913</v>
       </c>
       <c r="M45" t="n">
-        <v>369.097938531208</v>
+        <v>369.0979385312078</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437102</v>
       </c>
       <c r="O45" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163757</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="Q45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="R45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.6343706203802</v>
       </c>
       <c r="S45" t="n">
-        <v>700.837245351493</v>
+        <v>600.2267496365106</v>
       </c>
       <c r="T45" t="n">
-        <v>483.7205979104947</v>
+        <v>383.1101021955122</v>
       </c>
       <c r="U45" t="n">
-        <v>244.0967047591146</v>
+        <v>383.1101021955122</v>
       </c>
       <c r="V45" t="n">
-        <v>244.0017813000305</v>
+        <v>383.0151787364281</v>
       </c>
       <c r="W45" t="n">
-        <v>217.5880066676035</v>
+        <v>356.6014041040012</v>
       </c>
       <c r="X45" t="n">
-        <v>217.5880066676035</v>
+        <v>137.0934097206976</v>
       </c>
       <c r="Y45" t="n">
-        <v>217.5880066676035</v>
+        <v>137.0934097206976</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="C46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="D46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="E46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="F46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="G46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="H46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="I46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="J46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="K46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="L46" t="n">
-        <v>28.17573240056725</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="M46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="O46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="X46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.17573240056725</v>
+        <v>28.17573240056723</v>
       </c>
     </row>
   </sheetData>
@@ -8769,19 +8769,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>141.2745637540581</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098495</v>
+        <v>116.6657468248318</v>
       </c>
       <c r="N12" t="n">
-        <v>200.9373406025671</v>
+        <v>170.8384307724741</v>
       </c>
       <c r="O12" t="n">
-        <v>120.6896952421637</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>120.4158910275809</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098495</v>
+        <v>215.6056533098494</v>
       </c>
       <c r="N15" t="n">
-        <v>200.9373406025671</v>
+        <v>157.5736910591782</v>
       </c>
       <c r="O15" t="n">
-        <v>219.6296017271814</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P15" t="n">
-        <v>176.2649642485864</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9246,16 +9246,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>219.3557975125987</v>
+        <v>219.3557975125985</v>
       </c>
       <c r="M18" t="n">
-        <v>215.6056533098495</v>
+        <v>172.2420037664606</v>
       </c>
       <c r="N18" t="n">
-        <v>200.9373406025671</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O18" t="n">
-        <v>176.2659521837926</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P18" t="n">
         <v>120.6887073069575</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>189.2568876825058</v>
+        <v>120.4158910275809</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098495</v>
+        <v>185.5067434797564</v>
       </c>
       <c r="N21" t="n">
-        <v>101.9974341175494</v>
+        <v>200.937340602567</v>
       </c>
       <c r="O21" t="n">
-        <v>219.6296017271814</v>
+        <v>219.6296017271813</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>132.0073960199548</v>
       </c>
       <c r="L24" t="n">
-        <v>120.4158910275809</v>
+        <v>219.3557975125987</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N24" t="n">
-        <v>200.9373406025672</v>
+        <v>196.9397686233745</v>
       </c>
       <c r="O24" t="n">
-        <v>219.6296017271816</v>
+        <v>219.6296017271814</v>
       </c>
       <c r="P24" t="n">
-        <v>176.2649642485865</v>
+        <v>120.6887073069575</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,25 +23258,25 @@
         <v>173.7313831925514</v>
       </c>
       <c r="C11" t="n">
-        <v>50.90973371087912</v>
+        <v>50.90973371087924</v>
       </c>
       <c r="D11" t="n">
-        <v>38.47639597192759</v>
+        <v>126.9560755266667</v>
       </c>
       <c r="E11" t="n">
-        <v>72.18314839133646</v>
+        <v>171.1230548763542</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8433924547315</v>
+        <v>103.9034859697139</v>
       </c>
       <c r="G11" t="n">
-        <v>218.4705182927789</v>
+        <v>119.5306118077613</v>
       </c>
       <c r="H11" t="n">
         <v>146.5447204342349</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.19908950562701</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>22.05838072575466</v>
       </c>
       <c r="U11" t="n">
-        <v>29.73886257534827</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>120.5239264238701</v>
@@ -23495,16 +23495,16 @@
         <v>173.7313831925514</v>
       </c>
       <c r="C14" t="n">
-        <v>50.90973371087912</v>
+        <v>149.8496401958969</v>
       </c>
       <c r="D14" t="n">
-        <v>38.47639597192759</v>
+        <v>137.4163024569453</v>
       </c>
       <c r="E14" t="n">
         <v>171.1230548763542</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9034859697138</v>
+        <v>202.8433924547315</v>
       </c>
       <c r="G14" t="n">
         <v>218.4705182927789</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312412</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575466</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860077</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>33.37765679186643</v>
+        <v>21.58401993885244</v>
       </c>
       <c r="W14" t="n">
-        <v>137.5406066404849</v>
+        <v>38.60070015546731</v>
       </c>
       <c r="X14" t="n">
         <v>159.4268571094242</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.9297102331679</v>
+        <v>94.58795754362555</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>770673.4682129514</v>
+        <v>770673.4682129513</v>
       </c>
     </row>
     <row r="6">
@@ -26317,43 +26317,43 @@
         <v>749642.1958999909</v>
       </c>
       <c r="D2" t="n">
-        <v>749642.1958999907</v>
+        <v>749642.1958999909</v>
       </c>
       <c r="E2" t="n">
-        <v>645991.5756674079</v>
+        <v>645991.5756674078</v>
       </c>
       <c r="F2" t="n">
-        <v>645991.5756674082</v>
+        <v>645991.5756674085</v>
       </c>
       <c r="G2" t="n">
-        <v>751160.7665297559</v>
+        <v>751160.7665297561</v>
       </c>
       <c r="H2" t="n">
         <v>751160.766529756</v>
       </c>
       <c r="I2" t="n">
-        <v>751160.7665297559</v>
+        <v>751160.7665297557</v>
       </c>
       <c r="J2" t="n">
-        <v>751160.7665297551</v>
+        <v>751160.7665297549</v>
       </c>
       <c r="K2" t="n">
-        <v>751160.7665297552</v>
+        <v>751160.7665297553</v>
       </c>
       <c r="L2" t="n">
-        <v>751160.7665297552</v>
+        <v>751160.7665297554</v>
       </c>
       <c r="M2" t="n">
         <v>751160.7665297561</v>
       </c>
       <c r="N2" t="n">
-        <v>751160.7665297562</v>
+        <v>751160.7665297561</v>
       </c>
       <c r="O2" t="n">
         <v>751160.766529756</v>
       </c>
       <c r="P2" t="n">
-        <v>751160.7665297564</v>
+        <v>751160.7665297561</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>273465.0445868051</v>
+        <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103592.8157439611</v>
+        <v>103592.815743961</v>
       </c>
       <c r="M3" t="n">
         <v>22155.38587623637</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252968</v>
+        <v>66695.75573252978</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>431700.8089139007</v>
       </c>
       <c r="J4" t="n">
-        <v>430647.4817506725</v>
+        <v>430647.4817506727</v>
       </c>
       <c r="K4" t="n">
         <v>430647.4817506726</v>
@@ -26448,16 +26448,16 @@
         <v>430647.4817506726</v>
       </c>
       <c r="M4" t="n">
+        <v>430205.641534786</v>
+      </c>
+      <c r="N4" t="n">
         <v>430205.6415347859</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>430205.641534786</v>
       </c>
-      <c r="O4" t="n">
-        <v>430205.6415347859</v>
-      </c>
       <c r="P4" t="n">
-        <v>430205.6415347859</v>
+        <v>430205.641534786</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
+        <v>36014.95438787359</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36014.95438787359</v>
+      </c>
+      <c r="I5" t="n">
         <v>36014.9543878736</v>
       </c>
-      <c r="H5" t="n">
-        <v>36014.9543878736</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36014.95438787361</v>
-      </c>
       <c r="J5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="K5" t="n">
         <v>47593.60131544279</v>
@@ -26503,7 +26503,7 @@
         <v>43906.28142019036</v>
       </c>
       <c r="N5" t="n">
-        <v>43906.28142019036</v>
+        <v>43906.28142019035</v>
       </c>
       <c r="O5" t="n">
         <v>43906.28142019035</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248760.9385969556</v>
+        <v>248756.4722127504</v>
       </c>
       <c r="C6" t="n">
-        <v>248760.9385969555</v>
+        <v>248756.4722127503</v>
       </c>
       <c r="D6" t="n">
-        <v>248760.9385969555</v>
+        <v>248756.4722127504</v>
       </c>
       <c r="E6" t="n">
-        <v>-13784.48517448121</v>
+        <v>-14093.8063240764</v>
       </c>
       <c r="F6" t="n">
-        <v>259680.5594123241</v>
+        <v>259371.2382627293</v>
       </c>
       <c r="G6" t="n">
-        <v>179852.1874840205</v>
+        <v>179852.1874840208</v>
       </c>
       <c r="H6" t="n">
         <v>283445.0032279817</v>
       </c>
       <c r="I6" t="n">
-        <v>283445.0032279816</v>
+        <v>283445.0032279813</v>
       </c>
       <c r="J6" t="n">
-        <v>114073.7861284349</v>
+        <v>114073.7861284345</v>
       </c>
       <c r="K6" t="n">
-        <v>272919.6834636398</v>
+        <v>272919.6834636399</v>
       </c>
       <c r="L6" t="n">
-        <v>169326.8677196787</v>
+        <v>169326.8677196791</v>
       </c>
       <c r="M6" t="n">
-        <v>254893.4576985435</v>
+        <v>254893.4576985434</v>
       </c>
       <c r="N6" t="n">
         <v>277048.8435747799</v>
       </c>
       <c r="O6" t="n">
-        <v>210353.0878422501</v>
+        <v>210353.0878422499</v>
       </c>
       <c r="P6" t="n">
-        <v>277048.8435747801</v>
+        <v>277048.8435747798</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>329.8468768652333</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L2" t="n">
         <v>212.8607143456134</v>
@@ -26722,10 +26722,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="3">
@@ -26774,10 +26774,10 @@
         <v>104.1060083670286</v>
       </c>
       <c r="O3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670285</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670287</v>
+        <v>104.1060083670285</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>98.93990648501762</v>
+      </c>
+      <c r="F4" t="n">
+        <v>98.93990648501762</v>
+      </c>
+      <c r="G4" t="n">
+        <v>98.93990648501762</v>
+      </c>
+      <c r="H4" t="n">
+        <v>98.93990648501762</v>
+      </c>
+      <c r="I4" t="n">
         <v>98.93990648501773</v>
       </c>
-      <c r="F4" t="n">
-        <v>98.93990648501773</v>
-      </c>
-      <c r="G4" t="n">
-        <v>98.93990648501773</v>
-      </c>
-      <c r="H4" t="n">
-        <v>98.93990648501773</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98.93990648501786</v>
-      </c>
       <c r="J4" t="n">
-        <v>451.1365614921084</v>
+        <v>451.1365614921081</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1365614921085</v>
+        <v>451.1365614921083</v>
       </c>
       <c r="M4" t="n">
         <v>352.1966550070907</v>
       </c>
       <c r="N4" t="n">
-        <v>352.1966550070907</v>
+        <v>352.1966550070905</v>
       </c>
       <c r="O4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
       <c r="P4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070904</v>
       </c>
     </row>
   </sheetData>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566208</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
         <v>27.69423234529546</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566211</v>
+        <v>83.36969466566222</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>352.1966550070906</v>
+        <v>352.1966550070903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566208</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,10 +28114,10 @@
         <v>75.78032220706916</v>
       </c>
       <c r="K11" t="n">
-        <v>5.226507866178949</v>
+        <v>99.55055761549468</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>49.88540475335896</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28126,13 +28126,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>62.38586538433137</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>13.39547932052248</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.2613305419962</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R11" t="n">
         <v>194.140471641135</v>
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>85.53249199500364</v>
       </c>
       <c r="C12" t="n">
-        <v>151.7555259695305</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R12" t="n">
         <v>134.3278900205298</v>
@@ -28223,16 +28223,16 @@
         <v>200.355857185282</v>
       </c>
       <c r="U12" t="n">
-        <v>138.2877477348486</v>
+        <v>138.2877477348487</v>
       </c>
       <c r="V12" t="n">
         <v>200.355857185282</v>
       </c>
       <c r="W12" t="n">
+        <v>167.764677091994</v>
+      </c>
+      <c r="X12" t="n">
         <v>200.355857185282</v>
-      </c>
-      <c r="X12" t="n">
-        <v>118.3730079544529</v>
       </c>
       <c r="Y12" t="n">
         <v>200.355857185282</v>
@@ -28254,10 +28254,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>173.9724762173261</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G13" t="n">
         <v>168.6954829817093</v>
@@ -28275,16 +28275,16 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3049547715883</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814033</v>
       </c>
       <c r="N13" t="n">
-        <v>114.6502518757157</v>
+        <v>15.71034539069795</v>
       </c>
       <c r="O13" t="n">
-        <v>135.6707980487059</v>
+        <v>106.5381580869719</v>
       </c>
       <c r="P13" t="n">
         <v>57.83856215320002</v>
@@ -28351,13 +28351,13 @@
         <v>75.78032220706916</v>
       </c>
       <c r="K14" t="n">
-        <v>5.226507866178949</v>
+        <v>50.49605588383596</v>
       </c>
       <c r="L14" t="n">
-        <v>49.88540475335907</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.18968547299724</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.39547932052248</v>
+        <v>112.3353858055401</v>
       </c>
       <c r="Q14" t="n">
-        <v>167.5721056999713</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R14" t="n">
         <v>194.140471641135</v>
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>60.23240859156081</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28418,10 +28418,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.7382922638873</v>
+        <v>137.7123843387954</v>
       </c>
       <c r="H15" t="n">
-        <v>38.73717645752876</v>
+        <v>125.6745619188949</v>
       </c>
       <c r="I15" t="n">
         <v>107.1460820356304</v>
@@ -28451,7 +28451,7 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551216</v>
       </c>
       <c r="S15" t="n">
         <v>191.4735447740309</v>
@@ -28472,7 +28472,7 @@
         <v>200.355857185282</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.355857185282</v>
+        <v>124.444379649008</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28497,31 +28497,31 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>200.355857185282</v>
+        <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
         <v>165.7773474488177</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6938248359117</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J16" t="n">
-        <v>120.5014278416083</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3550587809061</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
-        <v>31.36504828657057</v>
+        <v>130.3049547715882</v>
       </c>
       <c r="M16" t="n">
-        <v>123.3272353814034</v>
+        <v>83.23784744237871</v>
       </c>
       <c r="N16" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O16" t="n">
-        <v>135.6707980487059</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P16" t="n">
         <v>57.83856215320002</v>
@@ -28585,13 +28585,13 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J17" t="n">
-        <v>121.0498702247265</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K17" t="n">
         <v>5.226507866178949</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>45.26954801765703</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>112.3353858055402</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q17" t="n">
         <v>88.43774142365251</v>
       </c>
       <c r="R17" t="n">
-        <v>194.140471641135</v>
+        <v>293.0803781261527</v>
       </c>
       <c r="S17" t="n">
         <v>227.2481593784061</v>
@@ -28649,10 +28649,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>72.88766535478194</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>71.67716948792474</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>148.7382922638873</v>
@@ -28685,13 +28685,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551218</v>
       </c>
       <c r="S18" t="n">
-        <v>92.53363828901313</v>
+        <v>92.53363828901325</v>
       </c>
       <c r="T18" t="n">
         <v>214.9454809665884</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>118.3730079544529</v>
+        <v>136.230352517753</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>124.444379649008</v>
       </c>
     </row>
     <row r="19">
@@ -28822,7 +28822,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J20" t="n">
-        <v>157.6039113254129</v>
+        <v>174.7202286920868</v>
       </c>
       <c r="K20" t="n">
         <v>5.226507866178949</v>
@@ -28837,13 +28837,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>62.38586538433137</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>13.39547932052248</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.43774142365251</v>
+        <v>133.7072894413096</v>
       </c>
       <c r="R20" t="n">
         <v>194.140471641135</v>
@@ -28877,16 +28877,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.810587912648</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>106.4355896026483</v>
       </c>
       <c r="D21" t="n">
-        <v>60.23240859156081</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>90.74500991808196</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>141.7090144303846</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7646770919939</v>
+        <v>167.764677091994</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>124.444379649008</v>
       </c>
     </row>
     <row r="22">
@@ -29056,13 +29056,13 @@
         <v>329.8468768652333</v>
       </c>
       <c r="I23" t="n">
-        <v>329.8468768652333</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
         <v>75.78032220706916</v>
       </c>
       <c r="K23" t="n">
-        <v>60.14403219453015</v>
+        <v>5.226507866178949</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,7 +29071,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>20.74607087118002</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>13.39547932052248</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.43774142365251</v>
+        <v>187.3776479086702</v>
       </c>
       <c r="R23" t="n">
         <v>194.140471641135</v>
@@ -29089,13 +29089,13 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4142379110366</v>
+        <v>237.9706218014326</v>
       </c>
       <c r="U23" t="n">
         <v>250.1495976938827</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>329.8468768652333</v>
       </c>
       <c r="W23" t="n">
         <v>329.8468768652333</v>
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>88.57824503934806</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>77.74087719821057</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7382922638873</v>
@@ -29159,19 +29159,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551206</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0055744815705</v>
+        <v>127.7992113345848</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348484</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490079</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="27">
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29372,7 +29372,7 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
         <v>51.87880489469028</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R27" t="n">
         <v>134.3278900205298</v>
@@ -29405,22 +29405,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
-        <v>91.70487230257817</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3.83764537790907</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="28">
@@ -29433,31 +29433,31 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>212.8607143456134</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6954829817093</v>
+        <v>193.259788229785</v>
       </c>
       <c r="H28" t="n">
-        <v>212.8607143456134</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6938248359117</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8654670400798</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="K28" t="n">
-        <v>200.1705689216115</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L28" t="n">
         <v>31.36504828657057</v>
@@ -29478,28 +29478,28 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8607143456134</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456132</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8607143456144</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="30">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29609,10 +29609,10 @@
         <v>125.6745619188949</v>
       </c>
       <c r="I30" t="n">
-        <v>55.5946523546305</v>
+        <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
-        <v>51.87880489469028</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>61.78015798288527</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8607143456134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.8607143456134</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29694,16 +29694,16 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K31" t="n">
-        <v>79.60898836271559</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L31" t="n">
         <v>31.36504828657057</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8607143456134</v>
+        <v>64.14797513816983</v>
       </c>
       <c r="N31" t="n">
-        <v>15.71034539069795</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O31" t="n">
         <v>36.73089156368813</v>
@@ -29718,25 +29718,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
     </row>
     <row r="32">
@@ -29770,13 +29770,13 @@
         <v>212.8607143456134</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456139</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="K32" t="n">
         <v>212.8607143456134</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="M32" t="n">
         <v>212.8607143456134</v>
@@ -29870,22 +29870,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>141.6227908829053</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.8607143456134</v>
+        <v>169.0736681647737</v>
       </c>
       <c r="W33" t="n">
         <v>212.8607143456134</v>
@@ -29907,7 +29907,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.8607143456134</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29916,13 +29916,13 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G34" t="n">
         <v>212.8607143456134</v>
       </c>
-      <c r="G34" t="n">
-        <v>168.6954829817093</v>
-      </c>
       <c r="H34" t="n">
-        <v>212.8607143456134</v>
+        <v>165.7773474488177</v>
       </c>
       <c r="I34" t="n">
         <v>164.6938248359117</v>
@@ -29934,7 +29934,7 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L34" t="n">
-        <v>31.36504828657057</v>
+        <v>212.8607143456134</v>
       </c>
       <c r="M34" t="n">
         <v>24.38732889638567</v>
@@ -29943,13 +29943,13 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O34" t="n">
-        <v>36.73089156368813</v>
+        <v>47.98100933744122</v>
       </c>
       <c r="P34" t="n">
         <v>57.83856215320002</v>
       </c>
       <c r="Q34" t="n">
-        <v>196.2641404948161</v>
+        <v>126.7738576957197</v>
       </c>
       <c r="R34" t="n">
         <v>203.1920160450731</v>
@@ -30007,7 +30007,7 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J35" t="n">
-        <v>75.78032220706916</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="K35" t="n">
         <v>240.5549466909089</v>
@@ -30019,22 +30019,22 @@
         <v>240.5549466909089</v>
       </c>
       <c r="N35" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="P35" t="n">
-        <v>156.9915780643769</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.43774142365251</v>
+        <v>113.7623827414609</v>
       </c>
       <c r="R35" t="n">
+        <v>194.140471641135</v>
+      </c>
+      <c r="S35" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="S35" t="n">
-        <v>227.2481593784061</v>
       </c>
       <c r="T35" t="n">
         <v>222.4142379110366</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3278900205298</v>
+        <v>101.5592388811602</v>
       </c>
       <c r="S36" t="n">
-        <v>68.92199385073651</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>206.0544632735133</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
         <v>168.6954829817093</v>
@@ -30174,7 +30174,7 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M37" t="n">
-        <v>24.38732889638567</v>
+        <v>123.6687140960645</v>
       </c>
       <c r="N37" t="n">
         <v>15.71034539069795</v>
@@ -30189,10 +30189,10 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R37" t="n">
+        <v>203.1920160450731</v>
+      </c>
+      <c r="S37" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="S37" t="n">
-        <v>235.3458201896853</v>
       </c>
       <c r="T37" t="n">
         <v>223.7389474107024</v>
@@ -30253,16 +30253,16 @@
         <v>240.5549466909089</v>
       </c>
       <c r="M38" t="n">
+        <v>143.6847907518734</v>
+      </c>
+      <c r="N38" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>240.5549466909089</v>
-      </c>
-      <c r="P38" t="n">
-        <v>138.8508692845047</v>
       </c>
       <c r="Q38" t="n">
         <v>88.43774142365251</v>
@@ -30271,10 +30271,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2481593784061</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="T38" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U38" t="n">
         <v>240.5549466909089</v>
@@ -30305,10 +30305,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>109.7531807387058</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30347,25 +30347,25 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="W39" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="X39" t="n">
-        <v>19.80762550046884</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30411,7 +30411,7 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M40" t="n">
-        <v>27.24977612482587</v>
+        <v>24.38732889638567</v>
       </c>
       <c r="N40" t="n">
         <v>15.71034539069795</v>
@@ -30420,7 +30420,7 @@
         <v>36.73089156368813</v>
       </c>
       <c r="P40" t="n">
-        <v>57.83856215320002</v>
+        <v>60.70100938164021</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7738576957197</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J41" t="n">
-        <v>75.78032220706916</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K41" t="n">
-        <v>213.9818233956536</v>
+        <v>49.20719891181377</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>44.30317459986757</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7382922638873</v>
       </c>
       <c r="H42" t="n">
         <v>125.6745619188949</v>
@@ -30560,7 +30560,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J42" t="n">
-        <v>51.87880489469028</v>
+        <v>51.8788048946903</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,13 +30581,13 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285847</v>
+        <v>6.0637077102859</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S42" t="n">
-        <v>191.4735447740308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
         <v>214.9454809665884</v>
@@ -30596,13 +30596,13 @@
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W42" t="n">
-        <v>156.3293341703384</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30639,25 +30639,25 @@
         <v>164.6938248359117</v>
       </c>
       <c r="J43" t="n">
-        <v>224.3559787409822</v>
+        <v>119.8654670400798</v>
       </c>
       <c r="K43" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588842</v>
       </c>
       <c r="L43" t="n">
-        <v>31.36504828657055</v>
+        <v>31.3650482865706</v>
       </c>
       <c r="M43" t="n">
-        <v>24.38732889638566</v>
+        <v>24.38732889638571</v>
       </c>
       <c r="N43" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069799</v>
       </c>
       <c r="O43" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368816</v>
       </c>
       <c r="P43" t="n">
-        <v>57.8385621532</v>
+        <v>162.3290738541023</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7738576957197</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="K44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>80.65469500418894</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5549466909089</v>
+        <v>49.20719891181402</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S44" t="n">
-        <v>227.2481593784061</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4142379110366</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.68965097743687</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469028</v>
+        <v>51.8788048946903</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285847</v>
+        <v>6.0637077102859</v>
       </c>
       <c r="R45" t="n">
         <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>99.60439075783222</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,22 +30879,22 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588838</v>
+        <v>66.41515229588842</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657055</v>
+        <v>135.8555599874729</v>
       </c>
       <c r="M46" t="n">
-        <v>128.877840597288</v>
+        <v>24.38732889638571</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069794</v>
+        <v>15.71034539069799</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368812</v>
+        <v>36.73089156368816</v>
       </c>
       <c r="P46" t="n">
-        <v>57.8385621532</v>
+        <v>57.83856215320004</v>
       </c>
       <c r="Q46" t="n">
         <v>126.7738576957197</v>
@@ -30909,13 +30909,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W46" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508679</v>
       </c>
       <c r="H41" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251577</v>
       </c>
       <c r="I41" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957735</v>
       </c>
       <c r="J41" t="n">
-        <v>35.52107468398432</v>
+        <v>35.52107468398425</v>
       </c>
       <c r="K41" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258251</v>
       </c>
       <c r="L41" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635114</v>
       </c>
       <c r="M41" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593763</v>
       </c>
       <c r="N41" t="n">
-        <v>74.67696618271293</v>
+        <v>74.67696618271279</v>
       </c>
       <c r="O41" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688509</v>
       </c>
       <c r="P41" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578553</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555756</v>
       </c>
       <c r="R41" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441348</v>
       </c>
       <c r="S41" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652911</v>
       </c>
       <c r="T41" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951425</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406942</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045518</v>
       </c>
       <c r="H42" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001856</v>
       </c>
       <c r="I42" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086543</v>
       </c>
       <c r="J42" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805812</v>
       </c>
       <c r="K42" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876309</v>
       </c>
       <c r="L42" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386552</v>
       </c>
       <c r="M42" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003051</v>
       </c>
       <c r="N42" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411718</v>
       </c>
       <c r="O42" t="n">
-        <v>53.27772298005852</v>
+        <v>53.27772298005843</v>
       </c>
       <c r="P42" t="n">
-        <v>42.76006973852542</v>
+        <v>42.76006973852534</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.58397422183021</v>
+        <v>28.58397422183016</v>
       </c>
       <c r="R42" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777034</v>
       </c>
       <c r="S42" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909106</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990484</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608894</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356251</v>
       </c>
       <c r="H43" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622195</v>
       </c>
       <c r="I43" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067709</v>
       </c>
       <c r="J43" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885869</v>
       </c>
       <c r="K43" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082989</v>
       </c>
       <c r="L43" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761285</v>
       </c>
       <c r="M43" t="n">
-        <v>29.42786725037172</v>
+        <v>29.42786725037166</v>
       </c>
       <c r="N43" t="n">
-        <v>28.72813834167532</v>
+        <v>28.72813834167527</v>
       </c>
       <c r="O43" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246818</v>
       </c>
       <c r="P43" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926141</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.72000726342133</v>
+        <v>15.7200072634213</v>
       </c>
       <c r="R43" t="n">
-        <v>8.441119957103664</v>
+        <v>8.44111995710365</v>
       </c>
       <c r="S43" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124483</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885797</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508686</v>
+        <v>0.4185166165508679</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251585</v>
+        <v>4.286133299251577</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957738</v>
+        <v>16.13486185957735</v>
       </c>
       <c r="J44" t="n">
-        <v>35.52107468398432</v>
+        <v>35.52107468398425</v>
       </c>
       <c r="K44" t="n">
-        <v>53.2368830625826</v>
+        <v>53.23688306258251</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635126</v>
+        <v>66.04506096635114</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593776</v>
+        <v>73.48785584593763</v>
       </c>
       <c r="N44" t="n">
-        <v>74.67696618271293</v>
+        <v>74.67696618271279</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688522</v>
+        <v>70.51534157688509</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578564</v>
+        <v>60.18321260578553</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555765</v>
+        <v>45.19508627555756</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441352</v>
+        <v>26.28964441441348</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652929</v>
+        <v>9.536947399652911</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951425</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406948</v>
+        <v>0.03348132932406942</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045522</v>
+        <v>0.2239261312045518</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16265500400186</v>
+        <v>2.162655004001856</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086556</v>
+        <v>7.709737412086543</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805812</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876315</v>
+        <v>36.15915952876309</v>
       </c>
       <c r="L45" t="n">
-        <v>48.6204523038656</v>
+        <v>48.62045230386552</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003061</v>
+        <v>56.73777456003051</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411729</v>
+        <v>58.23945462411718</v>
       </c>
       <c r="O45" t="n">
-        <v>53.27772298005852</v>
+        <v>53.27772298005843</v>
       </c>
       <c r="P45" t="n">
-        <v>42.76006973852542</v>
+        <v>42.76006973852534</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.58397422183021</v>
+        <v>28.58397422183016</v>
       </c>
       <c r="R45" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777034</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909114</v>
+        <v>4.159329673909106</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990499</v>
+        <v>0.9025794498990484</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608897</v>
+        <v>0.01473198231608894</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356254</v>
+        <v>0.1877321462356251</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622198</v>
+        <v>1.669109445622195</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067719</v>
+        <v>5.645617634067709</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885872</v>
+        <v>13.27266273885869</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082993</v>
+        <v>21.81106208082989</v>
       </c>
       <c r="L46" t="n">
-        <v>27.9106501776129</v>
+        <v>27.91065017761285</v>
       </c>
       <c r="M46" t="n">
-        <v>29.42786725037172</v>
+        <v>29.42786725037166</v>
       </c>
       <c r="N46" t="n">
-        <v>28.72813834167532</v>
+        <v>28.72813834167527</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246823</v>
+        <v>26.53508554246818</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926145</v>
+        <v>22.70534975926141</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342133</v>
+        <v>15.7200072634213</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103664</v>
+        <v>8.44111995710365</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124489</v>
+        <v>3.271659312124483</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885812</v>
+        <v>0.8021282611885797</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>94.32404974931573</v>
       </c>
       <c r="L11" t="n">
-        <v>49.05450173165866</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M11" t="n">
         <v>83.75022101202049</v>
@@ -35422,13 +35422,13 @@
         <v>78.19383561383771</v>
       </c>
       <c r="O11" t="n">
-        <v>98.93990648501773</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.82358911834373</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>9.267167734103328</v>
+        <v>39.36607756419615</v>
       </c>
       <c r="L12" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M12" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501773</v>
+        <v>68.84099665492468</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="P12" t="n">
         <v>85.67516677172179</v>
@@ -35550,10 +35550,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.2963350051011</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.42897496683531</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="N13" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>98.93990648501773</v>
+        <v>69.80726652328374</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>45.26954801765702</v>
       </c>
       <c r="L14" t="n">
-        <v>98.93990648501773</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M14" t="n">
-        <v>98.93990648501773</v>
+        <v>83.75022101202049</v>
       </c>
       <c r="N14" t="n">
         <v>78.19383561383771</v>
@@ -35662,10 +35662,10 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.13436427631882</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M15" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="N15" t="n">
-        <v>98.93990648501773</v>
+        <v>55.5762569416288</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="P15" t="n">
-        <v>55.57625694162891</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.17320693457125</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35793,31 +35793,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>31.66037420357262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.66203234937026</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6359608015284806</v>
+        <v>80.49039014520216</v>
       </c>
       <c r="K16" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M16" t="n">
-        <v>98.93990648501773</v>
+        <v>58.85051854599303</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.26954801765735</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.05450173165866</v>
+        <v>94.32404974931569</v>
       </c>
       <c r="M17" t="n">
         <v>83.75022101202049</v>
@@ -35899,13 +35899,13 @@
         <v>36.55404110068636</v>
       </c>
       <c r="P17" t="n">
-        <v>98.93990648501773</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L18" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="M18" t="n">
-        <v>98.93990648501773</v>
+        <v>55.5762569416288</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="O18" t="n">
-        <v>55.57625694162891</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>81.82358911834369</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36133,13 +36133,13 @@
         <v>78.19383561383771</v>
       </c>
       <c r="O20" t="n">
-        <v>98.93990648501773</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>45.26954801765706</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>39.36607756419615</v>
       </c>
       <c r="L21" t="n">
-        <v>68.84099665492491</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501773</v>
+        <v>68.84099665492468</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501773</v>
+        <v>98.93990648501762</v>
       </c>
       <c r="P21" t="n">
         <v>85.67516677172179</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.29193017432436</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>54.91752432835121</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>49.05450173165866</v>
@@ -36367,7 +36367,7 @@
         <v>83.75022101202049</v>
       </c>
       <c r="N23" t="n">
-        <v>78.19383561383771</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O23" t="n">
         <v>36.55404110068636</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>15.55638389039598</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>8.967093256081284</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.36607756419615</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501786</v>
+        <v>94.94233450582507</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501786</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P24" t="n">
-        <v>55.57625694162903</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>137.0803921385443</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L26" t="n">
         <v>261.9152160772721</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
         <v>291.0545499594512</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4652350250909</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447838</v>
+        <v>18.72024270447847</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36729,31 +36729,31 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.40353337364107</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.18457313338851</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.56430524807564</v>
       </c>
       <c r="H28" t="n">
-        <v>47.08336689679574</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.1668895097018</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.9952473055337</v>
       </c>
       <c r="K28" t="n">
-        <v>133.7554166257231</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.668698300540308</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0803921385443</v>
+        <v>137.080392138544</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6342064794355</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L29" t="n">
         <v>261.9152160772721</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N29" t="n">
         <v>291.0545499594512</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4652350250909</v>
+        <v>199.465235025091</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4229729219609</v>
+        <v>124.422972921961</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447838</v>
+        <v>18.72024270447846</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.24379368064533</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36990,16 +36990,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>13.1938360668272</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4733854492277</v>
+        <v>39.76064624178415</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1503689549155</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0803921385448</v>
+        <v>137.0803921385443</v>
       </c>
       <c r="K32" t="n">
         <v>207.6342064794345</v>
@@ -37203,7 +37203,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.4035333736411</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37212,13 +37212,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.9338321271668</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.16523136390411</v>
       </c>
       <c r="H34" t="n">
-        <v>47.08336689679577</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.4956660590429</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>11.25011777375309</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.49028279909642</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K35" t="n">
         <v>235.32843882473</v>
@@ -37315,22 +37315,22 @@
         <v>324.3051677029294</v>
       </c>
       <c r="N35" t="n">
-        <v>318.7487823047466</v>
+        <v>78.19383561383771</v>
       </c>
       <c r="O35" t="n">
         <v>277.1089877915953</v>
       </c>
       <c r="P35" t="n">
-        <v>143.5960987438544</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>25.32464131780841</v>
       </c>
       <c r="R35" t="n">
-        <v>46.41447504977387</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>13.30678731250283</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>67.12758105506666</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>99.28138519967888</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.3629306458358</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.209126501223583</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>289.6094484225675</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029294</v>
+        <v>227.4350117638939</v>
       </c>
       <c r="N38" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047466</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1089877915953</v>
+        <v>36.55404110068636</v>
       </c>
       <c r="P38" t="n">
-        <v>125.4553899639822</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37567,10 +37567,10 @@
         <v>46.41447504977387</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>13.30678731250283</v>
       </c>
       <c r="T38" t="n">
-        <v>18.14070877987229</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>2.862447228440199</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K41" t="n">
-        <v>208.7553155294747</v>
+        <v>43.98069104563475</v>
       </c>
       <c r="L41" t="n">
-        <v>49.05450173165869</v>
+        <v>49.05450173165858</v>
       </c>
       <c r="M41" t="n">
-        <v>324.3051677029295</v>
+        <v>324.3051677029293</v>
       </c>
       <c r="N41" t="n">
-        <v>78.19383561383773</v>
+        <v>78.19383561383759</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915952</v>
       </c>
       <c r="P41" t="n">
-        <v>227.1594673703865</v>
+        <v>227.1594673703864</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.1172052672565</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R41" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977388</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250287</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.36607756419616</v>
+        <v>39.3660775641961</v>
       </c>
       <c r="L42" t="n">
         <v>119.8886527290606</v>
       </c>
       <c r="M42" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851681</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O42" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P42" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172173</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.7746244838398</v>
+        <v>164.7746244838397</v>
       </c>
       <c r="K44" t="n">
-        <v>235.32843882473</v>
+        <v>235.3284388247299</v>
       </c>
       <c r="L44" t="n">
-        <v>49.05450173165869</v>
+        <v>49.05450173165858</v>
       </c>
       <c r="M44" t="n">
-        <v>164.4049160162095</v>
+        <v>324.3051677029293</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383773</v>
+        <v>318.7487823047466</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915953</v>
+        <v>36.55404110068626</v>
       </c>
       <c r="P44" t="n">
-        <v>227.1594673703865</v>
+        <v>35.81171959129146</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.1172052672565</v>
+        <v>152.1172052672564</v>
       </c>
       <c r="R44" t="n">
-        <v>46.41447504977391</v>
+        <v>46.41447504977388</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.30678731250287</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419616</v>
+        <v>39.3660775641961</v>
       </c>
       <c r="L45" t="n">
         <v>119.8886527290606</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851681</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O45" t="n">
-        <v>134.5330876491571</v>
+        <v>134.533087649157</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172181</v>
+        <v>85.67516677172173</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="M46" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
